--- a/surveys/Characterization 082019-198.xlsx
+++ b/surveys/Characterization 082019-198.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8340" windowWidth="20496" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_2360">#REF!</definedName>
+    <definedName name="_2360" localSheetId="0">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602'!$1:$17</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602'!$A$1:$S$37</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602'!$1:$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602'!$A$1:$S$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode=";;;" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1320,632 +1320,632 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="222">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="53" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="58" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="59" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="60" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="56" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="28" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="32" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="39" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="49" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="49" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="63" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="64" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="65" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="65" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="62" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="62" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="66" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="69" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="74" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="75" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="76" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="76" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="45" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="18" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="21" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="76" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="45" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="61" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="50" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="62" fillId="2" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="62" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="71" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="71" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="46" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="70" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="70" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="74" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="74" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="51" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="52" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="17" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="63" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="63" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="39" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="77" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="78" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="64" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="64" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="24" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="80" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="72" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="79" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="79" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="79" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="79" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="43" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="82" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="44" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="83" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="85" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="77" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="81" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="81" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="84" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="84" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="85" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2286,24 +2286,24 @@
   </sheetPr>
   <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="155" width="3.44140625"/>
-    <col customWidth="1" max="3" min="2" style="155" width="10.44140625"/>
-    <col customWidth="1" max="4" min="4" style="155" width="18.33203125"/>
-    <col customWidth="1" max="5" min="5" style="155" width="5.33203125"/>
-    <col customWidth="1" max="7" min="6" style="155" width="2.5546875"/>
-    <col customWidth="1" max="8" min="8" style="155" width="5.33203125"/>
-    <col customWidth="1" max="19" min="9" style="155" width="7.44140625"/>
-    <col customWidth="1" max="20" min="20" style="155" width="9.109375"/>
-    <col customWidth="1" max="16384" min="21" style="155" width="9.109375"/>
+    <col width="3.44140625" customWidth="1" style="155" min="1" max="1"/>
+    <col width="10.44140625" customWidth="1" style="155" min="2" max="3"/>
+    <col width="18.33203125" customWidth="1" style="155" min="4" max="4"/>
+    <col width="5.33203125" customWidth="1" style="155" min="5" max="5"/>
+    <col width="2.5546875" customWidth="1" style="155" min="6" max="7"/>
+    <col width="5.33203125" customWidth="1" style="155" min="8" max="8"/>
+    <col width="7.44140625" customWidth="1" style="155" min="9" max="19"/>
+    <col width="9.109375" customWidth="1" style="155" min="20" max="20"/>
+    <col width="9.109375" customWidth="1" style="155" min="21" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="39" r="1" thickBot="1">
+    <row r="1" ht="39" customHeight="1" thickBot="1">
       <c r="A1" s="197" t="n"/>
       <c r="B1" s="198" t="n"/>
       <c r="C1" s="198" t="n"/>
@@ -2324,7 +2324,7 @@
       <c r="R1" s="198" t="n"/>
       <c r="S1" s="198" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="2" thickTop="1">
+    <row r="2" ht="13.5" customHeight="1" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
       <c r="R2" s="202" t="n"/>
       <c r="S2" s="200" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="3">
+    <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
       <c r="R3" s="206" t="n"/>
       <c r="S3" s="211" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="4" thickBot="1">
+    <row r="4" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
       <c r="R4" s="198" t="n"/>
       <c r="S4" s="213" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="5" thickTop="1">
+    <row r="5" ht="13.5" customHeight="1" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="6">
+    <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="7">
+    <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="8" thickBot="1">
+    <row r="8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="9" thickTop="1">
+    <row r="9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -2680,7 +2680,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="10">
+    <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -2725,7 +2725,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="11">
+    <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -2772,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="12">
+    <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="13">
+    <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -2863,7 +2863,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="14">
+    <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -2903,7 +2903,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="15">
+    <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -2947,7 +2947,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="16" thickBot="1">
+    <row r="16" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -2989,7 +2989,7 @@
       <c r="S16" s="173" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" thickBot="1" thickTop="1">
+    <row r="17" ht="24" customHeight="1" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
+    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
       <c r="A18" s="124" t="n">
         <v>1</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
+    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A19" s="128" t="n">
         <v>2</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
+    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A20" s="124" t="n">
         <v>3</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
+    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A21" s="128" t="n">
         <v>4</v>
       </c>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="Y21" s="159" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
+    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A22" s="124" t="n">
         <v>5</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
+    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A23" s="128" t="n">
         <v>6</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
+    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A24" s="124" t="n">
         <v>7</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
+    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A25" s="128" t="n">
         <v>8</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
+    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A26" s="124" t="n">
         <v>9</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
+    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A27" s="128" t="n">
         <v>10</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
+    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A28" s="124" t="n">
         <v>11</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
+    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A29" s="128" t="n">
         <v>12</v>
       </c>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
+    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A30" s="124" t="n">
         <v>13</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
+    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A31" s="128" t="n"/>
       <c r="B31" s="157" t="n"/>
       <c r="C31" s="158" t="n"/>
@@ -3679,7 +3679,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
+    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A32" s="124" t="n"/>
       <c r="B32" s="157" t="n"/>
       <c r="C32" s="158" t="n"/>
@@ -3712,7 +3712,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
+    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A33" s="128" t="n"/>
       <c r="B33" s="157" t="n"/>
       <c r="C33" s="158" t="n"/>
@@ -3745,7 +3745,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
+    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A34" s="124" t="n"/>
       <c r="B34" s="157" t="n"/>
       <c r="C34" s="158" t="n"/>
@@ -3778,7 +3778,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
+    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A35" s="128" t="n"/>
       <c r="B35" s="148" t="n"/>
       <c r="C35" s="149" t="n"/>
@@ -3811,7 +3811,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
+    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A36" s="124" t="n"/>
       <c r="B36" s="148" t="n"/>
       <c r="C36" s="149" t="n"/>
@@ -3844,7 +3844,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
+    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
       <c r="A37" s="132" t="n"/>
       <c r="B37" s="151" t="n"/>
       <c r="C37" s="152" t="n"/>
@@ -3877,7 +3877,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="38" thickTop="1">
+    <row r="38" ht="15.75" customHeight="1" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -3934,7 +3934,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="154" t="n"/>
       <c r="O39" s="156" t="n"/>
       <c r="T39" s="91" t="n"/>
@@ -4055,8 +4055,8 @@
     <mergeCell ref="B33:H33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
 </worksheet>
 </file>
 
@@ -4068,17 +4068,17 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.6640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.6640625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="140" width="1.6640625"/>
-    <col customWidth="1" max="16384" min="2" style="140" width="1.6640625"/>
+    <col width="1.6640625" customWidth="1" style="140" min="1" max="1"/>
+    <col width="1.6640625" customWidth="1" style="140" min="2" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" thickBot="1">
       <c r="A1" s="219" t="n"/>
       <c r="B1" s="198" t="n"/>
       <c r="C1" s="198" t="n"/>
@@ -4157,7 +4157,7 @@
       <c r="BX1" s="198" t="n"/>
       <c r="BY1" s="198" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" thickTop="1">
+    <row r="2" ht="12" customHeight="1" thickTop="1">
       <c r="A2" s="92" t="n"/>
       <c r="B2" s="93" t="n"/>
       <c r="C2" s="93" t="n"/>
@@ -4236,7 +4236,7 @@
       <c r="BX2" s="93" t="n"/>
       <c r="BY2" s="94" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3">
+    <row r="3" ht="12" customHeight="1">
       <c r="A3" s="95" t="n"/>
       <c r="B3" s="137" t="n"/>
       <c r="C3" s="138" t="n"/>
@@ -4315,7 +4315,7 @@
       <c r="BX3" s="138" t="n"/>
       <c r="BY3" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4">
+    <row r="4" ht="12" customHeight="1">
       <c r="A4" s="95" t="n"/>
       <c r="B4" s="138" t="n"/>
       <c r="C4" s="138" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="BX4" s="138" t="n"/>
       <c r="BY4" s="96" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5">
+    <row r="5" ht="12" customHeight="1">
       <c r="A5" s="99" t="n"/>
       <c r="AW5" s="139" t="n"/>
       <c r="AX5" s="139" t="n"/>
@@ -4412,7 +4412,7 @@
       <c r="BJ5" s="139" t="n"/>
       <c r="BY5" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6">
+    <row r="6" ht="12" customHeight="1">
       <c r="A6" s="99" t="n"/>
       <c r="AW6" s="139" t="n"/>
       <c r="AX6" s="139" t="n"/>
@@ -4430,7 +4430,7 @@
       <c r="BJ6" s="139" t="n"/>
       <c r="BY6" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7">
+    <row r="7" ht="12" customHeight="1">
       <c r="A7" s="99" t="n"/>
       <c r="V7" s="139" t="n"/>
       <c r="W7" s="139" t="n"/>
@@ -4464,7 +4464,7 @@
       <c r="BJ7" s="141" t="n"/>
       <c r="BY7" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8">
+    <row r="8" ht="12" customHeight="1">
       <c r="A8" s="99" t="n"/>
       <c r="V8" s="139" t="n"/>
       <c r="W8" s="139" t="n"/>
@@ -4498,7 +4498,7 @@
       <c r="BJ8" s="141" t="n"/>
       <c r="BY8" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9">
+    <row r="9" ht="12" customHeight="1">
       <c r="A9" s="99" t="n"/>
       <c r="V9" s="141" t="n"/>
       <c r="W9" s="141" t="n"/>
@@ -4518,7 +4518,7 @@
       <c r="AK9" s="141" t="n"/>
       <c r="BY9" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10">
+    <row r="10" ht="12" customHeight="1">
       <c r="A10" s="99" t="n"/>
       <c r="V10" s="141" t="n"/>
       <c r="W10" s="141" t="n"/>
@@ -4538,7 +4538,7 @@
       <c r="AK10" s="141" t="n"/>
       <c r="BY10" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11">
+    <row r="11" ht="12" customHeight="1">
       <c r="A11" s="99" t="n"/>
       <c r="V11" s="141" t="n"/>
       <c r="W11" s="141" t="n"/>
@@ -4558,19 +4558,19 @@
       <c r="AK11" s="141" t="n"/>
       <c r="BY11" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12">
+    <row r="12" ht="12" customHeight="1">
       <c r="A12" s="99" t="n"/>
       <c r="BY12" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13">
+    <row r="13" ht="12" customHeight="1">
       <c r="A13" s="99" t="n"/>
       <c r="BY13" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14">
+    <row r="14" ht="12" customHeight="1">
       <c r="A14" s="99" t="n"/>
       <c r="BY14" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15">
+    <row r="15" ht="12" customHeight="1">
       <c r="A15" s="99" t="n"/>
       <c r="BY15" s="97" t="n"/>
       <c r="CP15" s="115" t="n"/>
@@ -4593,7 +4593,7 @@
       <c r="DG15" s="115" t="n"/>
       <c r="DH15" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16">
+    <row r="16" ht="12" customHeight="1">
       <c r="A16" s="99" t="n"/>
       <c r="BY16" s="97" t="n"/>
       <c r="CP16" s="115" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="DG16" s="115" t="n"/>
       <c r="DH16" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17">
+    <row r="17" ht="12" customHeight="1">
       <c r="A17" s="99" t="n"/>
       <c r="BY17" s="97" t="n"/>
       <c r="CP17" s="115" t="n"/>
@@ -4639,7 +4639,7 @@
       <c r="DG17" s="115" t="n"/>
       <c r="DH17" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18">
+    <row r="18" ht="12" customHeight="1">
       <c r="A18" s="99" t="n"/>
       <c r="BY18" s="97" t="n"/>
       <c r="CP18" s="115" t="n"/>
@@ -4662,7 +4662,7 @@
       <c r="DG18" s="115" t="n"/>
       <c r="DH18" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19">
+    <row r="19" ht="12" customHeight="1">
       <c r="A19" s="99" t="n"/>
       <c r="BY19" s="97" t="n"/>
       <c r="CP19" s="115" t="n"/>
@@ -4685,7 +4685,7 @@
       <c r="DG19" s="115" t="n"/>
       <c r="DH19" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20">
+    <row r="20" ht="12" customHeight="1">
       <c r="A20" s="99" t="n"/>
       <c r="BY20" s="97" t="n"/>
       <c r="CP20" s="115" t="n"/>
@@ -4708,7 +4708,7 @@
       <c r="DG20" s="115" t="n"/>
       <c r="DH20" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21">
+    <row r="21" ht="12" customHeight="1">
       <c r="A21" s="99" t="n"/>
       <c r="BY21" s="97" t="n"/>
       <c r="CP21" s="115" t="n"/>
@@ -4731,7 +4731,7 @@
       <c r="DG21" s="115" t="n"/>
       <c r="DH21" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22">
+    <row r="22" ht="12" customHeight="1">
       <c r="A22" s="99" t="n"/>
       <c r="BY22" s="97" t="n"/>
       <c r="CP22" s="115" t="n"/>
@@ -4754,7 +4754,7 @@
       <c r="DG22" s="115" t="n"/>
       <c r="DH22" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23">
+    <row r="23" ht="12" customHeight="1">
       <c r="A23" s="99" t="n"/>
       <c r="AL23" s="139" t="n"/>
       <c r="AM23" s="139" t="n"/>
@@ -4787,7 +4787,7 @@
       <c r="DG23" s="115" t="n"/>
       <c r="DH23" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24">
+    <row r="24" ht="12" customHeight="1">
       <c r="A24" s="99" t="n"/>
       <c r="J24" s="139" t="n"/>
       <c r="K24" s="139" t="n"/>
@@ -4815,7 +4815,7 @@
       <c r="AU24" s="139" t="n"/>
       <c r="BY24" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25">
+    <row r="25" ht="12" customHeight="1">
       <c r="A25" s="99" t="n"/>
       <c r="J25" s="139" t="n"/>
       <c r="K25" s="139" t="n"/>
@@ -4843,7 +4843,7 @@
       <c r="AU25" s="141" t="n"/>
       <c r="BY25" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26">
+    <row r="26" ht="12" customHeight="1">
       <c r="A26" s="99" t="n"/>
       <c r="BC26" s="139" t="n"/>
       <c r="BD26" s="139" t="n"/>
@@ -4861,7 +4861,7 @@
       <c r="BP26" s="139" t="n"/>
       <c r="BY26" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27">
+    <row r="27" ht="12" customHeight="1">
       <c r="A27" s="99" t="n"/>
       <c r="B27" s="115" t="n"/>
       <c r="C27" s="115" t="n"/>
@@ -4903,7 +4903,7 @@
       <c r="BP27" s="139" t="n"/>
       <c r="BY27" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28">
+    <row r="28" ht="12" customHeight="1">
       <c r="A28" s="99" t="n"/>
       <c r="B28" s="115" t="n"/>
       <c r="C28" s="115" t="n"/>
@@ -4945,7 +4945,7 @@
       <c r="BP28" s="139" t="n"/>
       <c r="BY28" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29">
+    <row r="29" ht="12" customHeight="1">
       <c r="A29" s="99" t="n"/>
       <c r="B29" s="115" t="n"/>
       <c r="C29" s="115" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="BP29" s="139" t="n"/>
       <c r="BY29" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30">
+    <row r="30" ht="12" customHeight="1">
       <c r="A30" s="99" t="n"/>
       <c r="B30" s="115" t="n"/>
       <c r="C30" s="115" t="n"/>
@@ -5029,7 +5029,7 @@
       <c r="BP30" s="141" t="n"/>
       <c r="BY30" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31">
+    <row r="31" ht="12" customHeight="1">
       <c r="A31" s="99" t="n"/>
       <c r="B31" s="115" t="n"/>
       <c r="C31" s="115" t="n"/>
@@ -5071,7 +5071,7 @@
       <c r="BP31" s="141" t="n"/>
       <c r="BY31" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32">
+    <row r="32" ht="12" customHeight="1">
       <c r="A32" s="99" t="n"/>
       <c r="B32" s="115" t="n"/>
       <c r="C32" s="115" t="n"/>
@@ -5099,7 +5099,7 @@
       <c r="Y32" s="142" t="n"/>
       <c r="BY32" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33">
+    <row r="33" ht="12" customHeight="1">
       <c r="A33" s="99" t="n"/>
       <c r="B33" s="115" t="n"/>
       <c r="C33" s="115" t="n"/>
@@ -5160,7 +5160,7 @@
       <c r="BS33" s="144" t="n"/>
       <c r="BY33" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34">
+    <row r="34" ht="12" customHeight="1">
       <c r="A34" s="99" t="n"/>
       <c r="B34" s="115" t="n"/>
       <c r="C34" s="115" t="n"/>
@@ -5221,7 +5221,7 @@
       <c r="BS34" s="144" t="n"/>
       <c r="BY34" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35">
+    <row r="35" ht="12" customHeight="1">
       <c r="A35" s="99" t="n"/>
       <c r="B35" s="115" t="n"/>
       <c r="C35" s="115" t="n"/>
@@ -5248,7 +5248,7 @@
       <c r="X35" s="115" t="n"/>
       <c r="BY35" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36">
+    <row r="36" ht="12" customHeight="1">
       <c r="A36" s="99" t="n"/>
       <c r="B36" s="115" t="n"/>
       <c r="C36" s="115" t="n"/>
@@ -5275,7 +5275,7 @@
       <c r="X36" s="115" t="n"/>
       <c r="BY36" s="97" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" thickBot="1">
+    <row r="37" ht="12" customHeight="1" thickBot="1">
       <c r="A37" s="100" t="n"/>
       <c r="B37" s="101" t="n"/>
       <c r="C37" s="101" t="n"/>
@@ -5354,7 +5354,7 @@
       <c r="BX37" s="101" t="n"/>
       <c r="BY37" s="102" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" thickTop="1">
+    <row r="38" ht="12" customHeight="1" thickTop="1">
       <c r="A38" s="221" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -5437,7 +5437,7 @@
       <c r="BX38" s="103" t="n"/>
       <c r="BY38" s="105" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39">
+    <row r="39" ht="12" customHeight="1">
       <c r="A39" s="215" t="inlineStr">
         <is>
           <t>Date</t>
@@ -5494,7 +5494,7 @@
       <c r="BX39" s="104" t="n"/>
       <c r="BY39" s="106" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40">
+    <row r="40" ht="12" customHeight="1">
       <c r="A40" s="215" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -5551,7 +5551,7 @@
       <c r="BX40" s="104" t="n"/>
       <c r="BY40" s="106" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41">
+    <row r="41" ht="12" customHeight="1">
       <c r="A41" s="215" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -5608,7 +5608,7 @@
       <c r="BX41" s="104" t="n"/>
       <c r="BY41" s="106" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42">
+    <row r="42" ht="12" customHeight="1">
       <c r="A42" s="215" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -5665,7 +5665,7 @@
       <c r="BX42" s="109" t="n"/>
       <c r="BY42" s="106" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43">
+    <row r="43" ht="12" customHeight="1">
       <c r="A43" s="215" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -5722,7 +5722,7 @@
       <c r="BX43" s="109" t="n"/>
       <c r="BY43" s="106" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44">
+    <row r="44" ht="12" customHeight="1">
       <c r="A44" s="215" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -5779,7 +5779,7 @@
       <c r="BX44" s="104" t="n"/>
       <c r="BY44" s="106" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" thickBot="1">
+    <row r="45" ht="12" customHeight="1" thickBot="1">
       <c r="A45" s="214" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -5862,15 +5862,15 @@
       <c r="BX45" s="113" t="n"/>
       <c r="BY45" s="114" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" thickTop="1"/>
-    <row customHeight="1" ht="13.2" r="47"/>
-    <row customHeight="1" ht="13.2" r="48"/>
-    <row customHeight="1" ht="13.2" r="49"/>
-    <row customHeight="1" ht="12" r="51">
+    <row r="46" ht="12" customHeight="1" thickTop="1"/>
+    <row r="47" ht="13.2" customHeight="1"/>
+    <row r="48" ht="13.2" customHeight="1"/>
+    <row r="49" ht="13.2" customHeight="1"/>
+    <row r="51" ht="12" customHeight="1">
       <c r="A51" s="116" t="n"/>
       <c r="B51" s="115" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52">
+    <row r="52" ht="12" customHeight="1">
       <c r="A52" s="116" t="n"/>
       <c r="B52" s="115" t="n"/>
     </row>
@@ -5895,7 +5895,7 @@
     <mergeCell ref="K45:Y45"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
 </worksheet>
 </file>
--- a/surveys/Characterization 082019-198.xlsx
+++ b/surveys/Characterization 082019-198.xlsx
@@ -2284,7 +2284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
@@ -3974,16 +3974,6 @@
       <c r="BB39" s="91" t="n"/>
       <c r="BC39" s="91" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="77">
     <mergeCell ref="X21:Y21"/>
